--- a/Calculs/DataBase_template_V2_results.xlsx
+++ b/Calculs/DataBase_template_V2_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AU27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,122 +536,137 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Mg+g'</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Mq</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vérinage </t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>m_els_1_1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>m_els_2_1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>m_elu_1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>m_feu_1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>m_elu_2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>els1_m1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>els1_m2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>els1_sigma_c1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>els1_sigma_c2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>els1_sigma_s1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>els1_sigma_s2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>els1_sigma_sr2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>els1_sigma_f2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>elu1_m_ed</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>elu1_m_rd1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>elu1_m_rd2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>elu1_sigma_c</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>elu1_sigma_s</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>elu1_sigma_sr</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>elu1_sigma_f</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>elu2_m_ed</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>elu2_sigma_c</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>elu2_sigma_s</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>elu2_m_rd1</t>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>elu2_m_rd</t>
         </is>
       </c>
     </row>
@@ -729,69 +744,78 @@
         <v>8.885759999999999</v>
       </c>
       <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14.62656</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23.51232</v>
+      </c>
+      <c r="Z2" t="n">
         <v>49.92</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>38.13888</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>38.13888</v>
       </c>
-      <c r="Z2" t="n">
-        <v>29.25312</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8.885759999999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.987154711705281</v>
-      </c>
       <c r="AC2" t="n">
-        <v>1.375235239075782</v>
+        <v>14.62656</v>
       </c>
       <c r="AD2" t="n">
-        <v>-244.708979170015</v>
+        <v>23.51232</v>
       </c>
       <c r="AE2" t="n">
-        <v>-61.72631875803147</v>
+        <v>2.49357735585264</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>3.638949243332875</v>
       </c>
       <c r="AG2" t="n">
-        <v>-63.35736735072454</v>
+        <v>-122.3544895850075</v>
       </c>
       <c r="AH2" t="n">
+        <v>-163.3321034910311</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-167.6479528673327</v>
+      </c>
+      <c r="AK2" t="n">
         <v>49.92</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
         <v>56.86374264883423</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AM2" t="n">
         <v>87.0070898773281</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AN2" t="n">
         <v>5.499690845535227</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AO2" t="n">
         <v>-352.0762363103744</v>
       </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>-364.8937016248078</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>38.13888</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AS2" t="n">
         <v>4.672226990056234</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AT2" t="n">
         <v>-324.0458083646158</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AU2" t="n">
         <v>56.86374264883423</v>
       </c>
     </row>
@@ -869,70 +893,79 @@
         <v>24.475</v>
       </c>
       <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>40.28749999999999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64.76249999999999</v>
+      </c>
+      <c r="Z3" t="n">
         <v>137.5</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>105.05</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>105.05</v>
       </c>
-      <c r="Z3" t="n">
-        <v>80.57499999999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>24.475</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18.53883625465311</v>
-      </c>
       <c r="AC3" t="n">
-        <v>3.670308313089094</v>
+        <v>40.28749999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>-508.1004282104228</v>
+        <v>64.76249999999999</v>
       </c>
       <c r="AE3" t="n">
-        <v>-71.63994152064186</v>
+        <v>9.26941812732654</v>
       </c>
       <c r="AF3" t="n">
-        <v>-109.6245009486029</v>
+        <v>9.711883232949232</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-254.0502141052115</v>
       </c>
       <c r="AH3" t="n">
+        <v>-189.5641149225973</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-290.0738199257975</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>137.5</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
         <v>72.91807572168555</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AM3" t="n">
         <v>125.1339888675334</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>105.05</v>
       </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>72.91807572168555</v>
+      <c r="AS3" t="n">
+        <v>11.33009045945918</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-355.9377605579324</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>125.1339888675334</v>
       </c>
     </row>
     <row r="4">
@@ -1009,69 +1042,78 @@
         <v>9.34144</v>
       </c>
       <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15.37664</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>24.71808</v>
+      </c>
+      <c r="Z4" t="n">
         <v>52.48</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>40.09472</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>40.09472</v>
       </c>
-      <c r="Z4" t="n">
-        <v>30.75328</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.34144</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.291882555053946</v>
-      </c>
       <c r="AC4" t="n">
-        <v>1.493834335406488</v>
+        <v>15.37664</v>
       </c>
       <c r="AD4" t="n">
-        <v>-195.8672698415225</v>
+        <v>24.71808</v>
       </c>
       <c r="AE4" t="n">
-        <v>-52.08280453768808</v>
+        <v>2.645941277526973</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>3.952786359418296</v>
       </c>
       <c r="AG4" t="n">
-        <v>-55.0064953939107</v>
+        <v>-97.93363492076122</v>
       </c>
       <c r="AH4" t="n">
+        <v>-137.8146120070286</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-145.550895115348</v>
+      </c>
+      <c r="AK4" t="n">
         <v>52.48</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AL4" t="n">
         <v>74.70889227763416</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AM4" t="n">
         <v>99.67682849113592</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AN4" t="n">
         <v>6.013999932802434</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AO4" t="n">
         <v>-298.2653651856763</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>-319.5161487481888</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AR4" t="n">
         <v>40.09472</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AS4" t="n">
         <v>4.991985829440042</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AT4" t="n">
         <v>-260.5146970415208</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AU4" t="n">
         <v>74.70889227763416</v>
       </c>
     </row>
@@ -1149,69 +1191,78 @@
         <v>17.622</v>
       </c>
       <c r="W5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>43.5105</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>32.1255</v>
+      </c>
+      <c r="Z5" t="n">
         <v>99.00000000000001</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>75.63600000000001</v>
       </c>
-      <c r="Y5" t="n">
-        <v>75.63600000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>58.014</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17.622</v>
-      </c>
       <c r="AB5" t="n">
-        <v>9.995620111259429</v>
+        <v>75.636</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.03621225222556</v>
+        <v>43.5105</v>
       </c>
       <c r="AD5" t="n">
-        <v>-303.2492554944853</v>
+        <v>32.1255</v>
       </c>
       <c r="AE5" t="n">
-        <v>-92.11325508194261</v>
+        <v>7.496715083444574</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>5.535117280040426</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>-227.436941620864</v>
       </c>
       <c r="AH5" t="n">
+        <v>-167.9255689555639</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>99.00000000000001</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AL5" t="n">
         <v>89.00659508617927</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AM5" t="n">
         <v>89.00659508617927</v>
       </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>75.63600000000001</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>75.636</v>
+      </c>
+      <c r="AS5" t="n">
         <v>9.024431339109613</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>-406.0859733077738</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AT5" t="n">
+        <v>-406.0859733077739</v>
+      </c>
+      <c r="AU5" t="n">
         <v>89.00659508617927</v>
       </c>
     </row>
@@ -1289,69 +1340,78 @@
         <v>9.1136</v>
       </c>
       <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15.0016</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>24.1152</v>
+      </c>
+      <c r="Z6" t="n">
         <v>51.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>39.1168</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
         <v>39.1168</v>
       </c>
-      <c r="Z6" t="n">
-        <v>30.0032</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>9.1136</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5.115030473543884</v>
-      </c>
       <c r="AC6" t="n">
-        <v>1.295735890584959</v>
+        <v>15.0016</v>
       </c>
       <c r="AD6" t="n">
-        <v>-250.9835683795025</v>
+        <v>24.1152</v>
       </c>
       <c r="AE6" t="n">
-        <v>-54.17294726117211</v>
+        <v>2.557515236771938</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>3.428604519469189</v>
       </c>
       <c r="AG6" t="n">
-        <v>-55.69159436769576</v>
+        <v>-125.4917841897513</v>
       </c>
       <c r="AH6" t="n">
+        <v>-143.3452705618655</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-147.3637131864309</v>
+      </c>
+      <c r="AK6" t="n">
         <v>51.2</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AL6" t="n">
         <v>56.86374264883423</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AM6" t="n">
         <v>120.8739950107173</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AN6" t="n">
         <v>5.214553502602876</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AO6" t="n">
         <v>-308.7381549629059</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>-320.7166777822678</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AR6" t="n">
         <v>39.1168</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>4.785503516481082</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AT6" t="n">
         <v>-332.3735469549238</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AU6" t="n">
         <v>56.86374264883423</v>
       </c>
     </row>
@@ -1429,70 +1489,79 @@
         <v>29.37</v>
       </c>
       <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>48.345</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>77.715</v>
+      </c>
+      <c r="Z7" t="n">
         <v>165</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>126.06</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>126.06</v>
       </c>
-      <c r="Z7" t="n">
-        <v>96.69</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29.37</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.65936685209905</v>
-      </c>
       <c r="AC7" t="n">
-        <v>3.82238208316595</v>
+        <v>48.345</v>
       </c>
       <c r="AD7" t="n">
-        <v>-505.4154258241421</v>
+        <v>77.715</v>
       </c>
       <c r="AE7" t="n">
-        <v>-87.57138826975043</v>
+        <v>8.329683426049526</v>
       </c>
       <c r="AF7" t="n">
-        <v>-106.2145774749325</v>
+        <v>10.11428068073687</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-252.707712912071</v>
       </c>
       <c r="AH7" t="n">
+        <v>-231.7197970508565</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-281.0509325319844</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>165</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AL7" t="n">
         <v>89.00659508617927</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
         <v>140.7031312737897</v>
       </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>126.06</v>
       </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>89.00659508617927</v>
+      <c r="AS7" t="n">
+        <v>11.35789359682461</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-410.8533807704802</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>140.7031312737897</v>
       </c>
     </row>
     <row r="8">
@@ -1569,69 +1638,78 @@
         <v>15.9488</v>
       </c>
       <c r="W8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>26.2528</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>42.2016</v>
+      </c>
+      <c r="Z8" t="n">
         <v>89.60000000000001</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>68.45440000000001</v>
       </c>
-      <c r="Y8" t="n">
-        <v>68.45440000000001</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>52.5056</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15.9488</v>
-      </c>
       <c r="AB8" t="n">
-        <v>9.034921435457957</v>
+        <v>68.45439999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.27316684855201</v>
+        <v>26.2528</v>
       </c>
       <c r="AD8" t="n">
-        <v>-334.4075338757701</v>
+        <v>42.2016</v>
       </c>
       <c r="AE8" t="n">
-        <v>-71.13576392790496</v>
+        <v>4.517460717728978</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>6.014952728471886</v>
       </c>
       <c r="AG8" t="n">
-        <v>-75.38698161424935</v>
+        <v>-167.203766937885</v>
       </c>
       <c r="AH8" t="n">
+        <v>-188.2300270227148</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-199.4790356197271</v>
+      </c>
+      <c r="AK8" t="n">
         <v>89.60000000000001</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
         <v>74.70889227763416</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="n">
         <v>159.5985530758954</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AN8" t="n">
         <v>8.807618057789405</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AO8" t="n">
         <v>-407.5925883547391</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>-439.3725020317615</v>
       </c>
-      <c r="AO8" t="n">
-        <v>68.45440000000001</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>10.90928202754705</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
+        <v>68.45439999999999</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>10.909282027547</v>
+      </c>
+      <c r="AT8" t="n">
         <v>-436.7144597097943</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AU8" t="n">
         <v>74.70889227763416</v>
       </c>
     </row>
@@ -1709,69 +1787,78 @@
         <v>21.538</v>
       </c>
       <c r="W9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X9" t="n">
+        <v>53.1795</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>39.2645</v>
+      </c>
+      <c r="Z9" t="n">
         <v>121</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>92.444</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>92.444</v>
       </c>
-      <c r="Z9" t="n">
-        <v>70.90600000000001</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21.538</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.40171550776045</v>
-      </c>
       <c r="AC9" t="n">
-        <v>3.155655107184544</v>
+        <v>53.1795</v>
       </c>
       <c r="AD9" t="n">
-        <v>-316.0251999708781</v>
+        <v>39.2645</v>
       </c>
       <c r="AE9" t="n">
-        <v>-80.7537712621285</v>
+        <v>8.551286630820329</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>5.752865630794301</v>
       </c>
       <c r="AG9" t="n">
-        <v>-87.68166460834941</v>
+        <v>-237.0188999781586</v>
       </c>
       <c r="AH9" t="n">
+        <v>-147.2168470480937</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-159.8466301427493</v>
+      </c>
+      <c r="AK9" t="n">
         <v>121</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AL9" t="n">
         <v>103.3798257448046</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
         <v>153.9397267842878</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AN9" t="n">
         <v>12.66891043328229</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AO9" t="n">
         <v>-435.395687417454</v>
       </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>-665.3954329157008</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AR9" t="n">
         <v>92.444</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AS9" t="n">
         <v>10.15671636660574</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AT9" t="n">
         <v>-424.5209543560929</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AU9" t="n">
         <v>103.3798257448046</v>
       </c>
     </row>
@@ -1849,69 +1936,78 @@
         <v>1.777152</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.850624</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.777152</v>
+      </c>
+      <c r="Z10" t="n">
         <v>9.984</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>7.627776</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>7.627776</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>5.850624</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>1.777152</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>1.665575064027908</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>0.4134653417236674</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>-109.7952510770359</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>-23.42092314839613</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>-24.44950777205348</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>9.984</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
         <v>25.25707130434771</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AM10" t="n">
         <v>54.76274042434937</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AN10" t="n">
         <v>1.715917820668678</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AO10" t="n">
         <v>-132.7845009825359</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>-139.706718283484</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>7.627776</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AS10" t="n">
         <v>1.591225928576793</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AT10" t="n">
         <v>-144.7506290218388</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AU10" t="n">
         <v>25.25707130434771</v>
       </c>
     </row>
@@ -1989,69 +2085,78 @@
         <v>5.874</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19.338</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5.874</v>
+      </c>
+      <c r="Z11" t="n">
         <v>33</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>25.212</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>25.212</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>19.338</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
         <v>5.874</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
         <v>3.109558774843754</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
         <v>0.9445417438945193</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
         <v>-86.18869090114853</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>-26.18018256041714</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
         <v>33</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AL11" t="n">
         <v>103.3798257448046</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AM11" t="n">
         <v>103.3798257448046</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AN11" t="n">
         <v>3.94278209859754</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AO11" t="n">
         <v>-150.6876485289022</v>
       </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
         <v>25.212</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AS11" t="n">
         <v>3.040872438766915</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AT11" t="n">
         <v>-115.0500149832068</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AU11" t="n">
         <v>103.3798257448046</v>
       </c>
     </row>
@@ -2129,69 +2234,78 @@
         <v>2.05056</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.750719999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.05056</v>
+      </c>
+      <c r="Z12" t="n">
         <v>11.52</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>8.801279999999998</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>8.801279999999998</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>6.750719999999999</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>2.05056</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>1.921817381570665</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
         <v>0.583754377428474</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
         <v>-126.6868281658106</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
         <v>-38.48170320437851</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>11.52</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AL12" t="n">
         <v>25.25707130434771</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AM12" t="n">
         <v>25.25707130434771</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AN12" t="n">
         <v>2.382740925945498</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AO12" t="n">
         <v>-218.6753340029217</v>
       </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
         <v>8.801279999999998</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AS12" t="n">
         <v>1.831345369175367</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AT12" t="n">
         <v>-167.0343316718728</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AU12" t="n">
         <v>25.25707130434771</v>
       </c>
     </row>
@@ -2269,69 +2383,78 @@
         <v>21.538</v>
       </c>
       <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>70.90600000000001</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21.538</v>
+      </c>
+      <c r="Z13" t="n">
         <v>121</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>92.444</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>92.444</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>70.90600000000001</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AD13" t="n">
         <v>21.538</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>11.40171550776045</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
         <v>3.155655107184544</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AG13" t="n">
         <v>-316.0251999708781</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>-80.7537712621285</v>
       </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>-87.68166460834941</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
         <v>121</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AL13" t="n">
         <v>103.3798257448046</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AM13" t="n">
         <v>153.9397267842878</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AN13" t="n">
         <v>12.66891043328229</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AO13" t="n">
         <v>-435.395687417454</v>
       </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>-665.3954329157008</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>92.444</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AS13" t="n">
         <v>10.15671636660574</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AT13" t="n">
         <v>-424.5209543560929</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AU13" t="n">
         <v>103.3798257448046</v>
       </c>
     </row>
@@ -2409,69 +2532,78 @@
         <v>12.98688</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>42.75456000000001</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.98688</v>
+      </c>
+      <c r="Z14" t="n">
         <v>72.96000000000001</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>55.74144</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>55.74144</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>42.75456000000001</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
         <v>12.98688</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>8.802121027587839</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>2.213297124328229</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="n">
         <v>-404.4442731001347</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>-86.15197546684658</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>-90.7026434746667</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AK14" t="n">
         <v>72.96000000000001</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AL14" t="n">
         <v>50.29503576592909</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AM14" t="n">
         <v>107.9564542421578</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AN14" t="n">
         <v>9.177153109214244</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AO14" t="n">
         <v>-435.4326783949165</v>
       </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>-651.4881543681898</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>55.74144</v>
       </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
         <v>50.29503576592909</v>
       </c>
     </row>
@@ -2549,69 +2681,78 @@
         <v>28.391</v>
       </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>93.467</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>28.391</v>
+      </c>
+      <c r="Z15" t="n">
         <v>159.5</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>121.858</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>121.858</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
         <v>93.467</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
         <v>28.391</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AE15" t="n">
         <v>12.99370797961613</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
         <v>3.585038060347737</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
         <v>-296.4277930297411</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
         <v>-76.31927991067322</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>-97.62908726815098</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AK15" t="n">
         <v>159.5</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
         <v>141.9525202393384</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AM15" t="n">
         <v>199.1085247965108</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AN15" t="n">
         <v>13.34693922504519</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AO15" t="n">
         <v>-434.9350624391309</v>
       </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>-635.9910063461444</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>121.858</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AS15" t="n">
         <v>11.45054088172761</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AT15" t="n">
         <v>-400.9178273199688</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AU15" t="n">
         <v>141.9525202393384</v>
       </c>
     </row>
@@ -2689,69 +2830,78 @@
         <v>10.2528</v>
       </c>
       <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>33.7536</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.2528</v>
+      </c>
+      <c r="Z16" t="n">
         <v>57.6</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>44.0064</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
         <v>44.0064</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>33.7536</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
         <v>10.2528</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>5.754409282736865</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AF16" t="n">
         <v>1.586808929026338</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
         <v>-282.3565144269404</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>-71.22268170246876</v>
       </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>-73.10465993123171</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>57.6</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AL16" t="n">
         <v>56.86374264883423</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AM16" t="n">
         <v>87.0070898773281</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AN16" t="n">
         <v>6.280569330321651</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AO16" t="n">
         <v>-406.4318349903529</v>
       </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>-421.2976336971287</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>44.0064</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AS16" t="n">
         <v>5.346701899016952</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AT16" t="n">
         <v>-374.0274556359911</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AU16" t="n">
         <v>56.86374264883423</v>
       </c>
     </row>
@@ -2829,69 +2979,78 @@
         <v>8.43008</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13.87648</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>22.30656</v>
+      </c>
+      <c r="Z17" t="n">
         <v>47.36</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>36.18304</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>36.18304</v>
       </c>
-      <c r="Z17" t="n">
-        <v>27.75296</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>8.43008</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>4.731403188028096</v>
-      </c>
       <c r="AC17" t="n">
-        <v>1.304710629286917</v>
+        <v>13.87648</v>
       </c>
       <c r="AD17" t="n">
-        <v>-232.1598007510398</v>
+        <v>22.30656</v>
       </c>
       <c r="AE17" t="n">
-        <v>-58.56086474326035</v>
+        <v>2.365701594014048</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>3.452337040105064</v>
       </c>
       <c r="AG17" t="n">
-        <v>-60.10827007965867</v>
+        <v>-116.0799003755199</v>
       </c>
       <c r="AH17" t="n">
+        <v>-154.9560944488976</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-159.0506187672474</v>
+      </c>
+      <c r="AK17" t="n">
         <v>47.36</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AL17" t="n">
         <v>56.86374264883423</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AM17" t="n">
         <v>87.0070898773281</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AN17" t="n">
         <v>5.235305334992733</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AO17" t="n">
         <v>-333.9697973517254</v>
       </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>-346.1094580267667</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>36.18304</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AS17" t="n">
         <v>4.444648368310663</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AT17" t="n">
         <v>-307.3933331589693</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AU17" t="n">
         <v>56.86374264883423</v>
       </c>
     </row>
@@ -2969,70 +3128,79 @@
         <v>29.37</v>
       </c>
       <c r="W18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>48.345</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>77.715</v>
+      </c>
+      <c r="Z18" t="n">
         <v>165</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>126.06</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>126.06</v>
       </c>
-      <c r="Z18" t="n">
-        <v>96.69</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>29.37</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>16.65936685209905</v>
-      </c>
       <c r="AC18" t="n">
-        <v>4.297386970816254</v>
+        <v>48.345</v>
       </c>
       <c r="AD18" t="n">
-        <v>-505.4154258241421</v>
+        <v>77.715</v>
       </c>
       <c r="AE18" t="n">
-        <v>-111.5268192301369</v>
+        <v>8.329683426049526</v>
       </c>
       <c r="AF18" t="n">
-        <v>-134.6656172978408</v>
+        <v>11.371175636261</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>-252.707712912071</v>
       </c>
       <c r="AH18" t="n">
+        <v>-295.107482344913</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-356.3343019510282</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>165</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AL18" t="n">
         <v>89.00659508617927</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AM18" t="n">
         <v>115.1806044697896</v>
       </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
         <v>126.06</v>
       </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>89.00659508617927</v>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>115.1806044697896</v>
       </c>
     </row>
     <row r="19">
@@ -3109,69 +3277,78 @@
         <v>17.088</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>28.128</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>45.216</v>
+      </c>
+      <c r="Z19" t="n">
         <v>96</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>73.34399999999999</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
         <v>73.34399999999999</v>
       </c>
-      <c r="Z19" t="n">
-        <v>56.256</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17.088</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.560240239497679</v>
-      </c>
       <c r="AC19" t="n">
-        <v>2.338825869176821</v>
+        <v>28.128</v>
       </c>
       <c r="AD19" t="n">
-        <v>-270.7355570972866</v>
+        <v>45.216</v>
       </c>
       <c r="AE19" t="n">
-        <v>-67.73448659901503</v>
+        <v>4.280120119748839</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>6.188690923495972</v>
       </c>
       <c r="AG19" t="n">
-        <v>-71.97559576383577</v>
+        <v>-135.3677785486433</v>
       </c>
       <c r="AH19" t="n">
+        <v>-179.2300179108769</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-190.4522786784644</v>
+      </c>
+      <c r="AK19" t="n">
         <v>96</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AL19" t="n">
         <v>97.15351708232025</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AM19" t="n">
         <v>151.3768670716909</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AN19" t="n">
         <v>9.094222001523686</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AO19" t="n">
         <v>-389.6174552601787</v>
       </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>-421.8408903840506</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>73.34399999999999</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AS19" t="n">
         <v>7.831188389844293</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AT19" t="n">
         <v>-362.0044774989597</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AU19" t="n">
         <v>97.15351708232025</v>
       </c>
     </row>
@@ -3249,69 +3426,78 @@
         <v>21.538</v>
       </c>
       <c r="W20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>53.1795</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>39.2645</v>
+      </c>
+      <c r="Z20" t="n">
         <v>121</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>92.444</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AB20" t="n">
         <v>92.444</v>
       </c>
-      <c r="Z20" t="n">
-        <v>70.90600000000001</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>21.538</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>19.85351133461452</v>
-      </c>
       <c r="AC20" t="n">
-        <v>4.027742511377521</v>
+        <v>53.1795</v>
       </c>
       <c r="AD20" t="n">
-        <v>-535.6840579944145</v>
+        <v>39.2645</v>
       </c>
       <c r="AE20" t="n">
-        <v>-84.49734114264351</v>
+        <v>14.89013350096087</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>7.342710364842726</v>
       </c>
       <c r="AG20" t="n">
-        <v>-130.7412588436071</v>
+        <v>-401.7630434958109</v>
       </c>
       <c r="AH20" t="n">
+        <v>-154.0415011280215</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-238.3457218806208</v>
+      </c>
+      <c r="AK20" t="n">
         <v>121</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AL20" t="n">
         <v>60.84057951309246</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AM20" t="n">
         <v>168.0345242760564</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AN20" t="n">
         <v>14.20166512638405</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AO20" t="n">
         <v>-435.0793628895784</v>
       </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>-847.0417297925053</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>92.444</v>
       </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
         <v>60.84057951309246</v>
       </c>
     </row>
@@ -3389,69 +3575,78 @@
         <v>0.6379519999999999</v>
       </c>
       <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.100224</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.6379519999999999</v>
+      </c>
+      <c r="Z21" t="n">
         <v>3.584</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>2.738176</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
         <v>2.738176</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>2.100224</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>0.6379519999999999</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
         <v>0.5979027869104363</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
         <v>0.1484202634409113</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AG21" t="n">
         <v>-39.41365312961763</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
         <v>-8.407507527753864</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>-8.776739415161794</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AK21" t="n">
         <v>3.584</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AL21" t="n">
         <v>25.25707130434771</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AM21" t="n">
         <v>54.76274042434937</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AN21" t="n">
         <v>0.6224919026573055</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AO21" t="n">
         <v>-47.65372752960639</v>
       </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>-50.12936202686662</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>2.738176</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AS21" t="n">
         <v>0.5772155380021164</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AT21" t="n">
         <v>-51.9434008359583</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AU21" t="n">
         <v>25.25707130434771</v>
       </c>
     </row>
@@ -3529,69 +3724,78 @@
         <v>5.874</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19.338</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5.874</v>
+      </c>
+      <c r="Z22" t="n">
         <v>190</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>25.212</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AB22" t="n">
         <v>25.212</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AC22" t="n">
         <v>19.338</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
         <v>5.874</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
         <v>3.613198426782055</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AF22" t="n">
         <v>0.804673487352945</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="n">
         <v>-121.3974375236764</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AH22" t="n">
         <v>-21.54102228513154</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>-27.12049253787868</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AK22" t="n">
         <v>190</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
         <v>75.20242638779567</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AM22" t="n">
         <v>197.2680150274209</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AN22" t="n">
         <v>16.15534549996777</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AO22" t="n">
         <v>-437.0662408139761</v>
       </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>-1363.735375198369</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>25.212</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AS22" t="n">
         <v>3.483743857572264</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AT22" t="n">
         <v>-161.5493429533955</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AU22" t="n">
         <v>75.20242638779567</v>
       </c>
     </row>
@@ -3669,69 +3873,78 @@
         <v>1.731584</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.700608</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.731584</v>
+      </c>
+      <c r="Z23" t="n">
         <v>9.728</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>7.432192</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>7.432192</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>5.700608</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AD23" t="n">
         <v>1.731584</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AE23" t="n">
         <v>1.622868011104113</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AF23" t="n">
         <v>0.4028636662948548</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AG23" t="n">
         <v>-106.9799882289067</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
         <v>-22.82038665741162</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>-23.8225973163598</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AK23" t="n">
         <v>9.728</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AL23" t="n">
         <v>25.25707130434771</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AM23" t="n">
         <v>54.76274042434937</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AN23" t="n">
         <v>1.672634943753077</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AO23" t="n">
         <v>-129.3783977379728</v>
       </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>-136.1220980797392</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>7.432192</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AS23" t="n">
         <v>1.551082919378423</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AT23" t="n">
         <v>-141.0370580091802</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AU23" t="n">
         <v>25.25707130434771</v>
       </c>
     </row>
@@ -3809,69 +4022,78 @@
         <v>21.538</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>70.90600000000001</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>21.538</v>
+      </c>
+      <c r="Z24" t="n">
         <v>121</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>92.444</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AB24" t="n">
         <v>92.444</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AC24" t="n">
         <v>70.90600000000001</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AD24" t="n">
         <v>21.538</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AE24" t="n">
         <v>21.75704653924921</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AF24" t="n">
         <v>5.073579907939426</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
         <v>-480.3995062376544</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AH24" t="n">
         <v>-98.59163191198238</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>-176.4738525641351</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
         <v>121</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AL24" t="n">
         <v>66.18927326840991</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AM24" t="n">
         <v>118.7326334043527</v>
       </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
       <c r="AN24" t="n">
         <v>0</v>
       </c>
       <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
         <v>92.444</v>
       </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
         <v>66.18927326840991</v>
       </c>
     </row>
@@ -3949,69 +4171,78 @@
         <v>17.088</v>
       </c>
       <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>56.256</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17.088</v>
+      </c>
+      <c r="Z25" t="n">
         <v>96</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>73.34399999999999</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>73.34399999999999</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>56.256</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AD25" t="n">
         <v>17.088</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AE25" t="n">
         <v>9.680272966562086</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AF25" t="n">
         <v>2.316246672997175</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
         <v>-358.293786295468</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>-69.31607483487772</v>
       </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>-73.57069455546674</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AK25" t="n">
         <v>96</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AL25" t="n">
         <v>74.70889227763416</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AM25" t="n">
         <v>188.8910975819768</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AN25" t="n">
         <v>8.987234136415639</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AO25" t="n">
         <v>-396.6580514282147</v>
       </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>-428.7220549557254</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>73.34399999999999</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AS25" t="n">
         <v>16.66666666666667</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AT25" t="n">
         <v>-457.6017358306436</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AU25" t="n">
         <v>74.70889227763416</v>
       </c>
     </row>
@@ -4089,69 +4320,78 @@
         <v>28.391</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>93.467</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>28.391</v>
+      </c>
+      <c r="Z26" t="n">
         <v>159.5</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
         <v>121.858</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AB26" t="n">
         <v>121.858</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
         <v>93.467</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
         <v>28.391</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AE26" t="n">
         <v>14.95672491179988</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AF26" t="n">
         <v>4.013079283293444</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AG26" t="n">
         <v>-324.2318911794311</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AH26" t="n">
         <v>-80.765831092532</v>
       </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>-115.1822704372775</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AK26" t="n">
         <v>159.5</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AL26" t="n">
         <v>128.9402449739937</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AM26" t="n">
         <v>186.5951698893791</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AN26" t="n">
         <v>14.89478858771068</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AO26" t="n">
         <v>-435.3451015598433</v>
       </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>-877.2057889859425</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AR26" t="n">
         <v>121.858</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AS26" t="n">
         <v>13.79364486805131</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AT26" t="n">
         <v>-435.2899654962274</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AU26" t="n">
         <v>128.9402449739937</v>
       </c>
     </row>
@@ -4229,69 +4469,78 @@
         <v>8.43008</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>27.75296</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.43008</v>
+      </c>
+      <c r="Z27" t="n">
         <v>47.36</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>36.18304</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
         <v>36.18304</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
         <v>27.75296</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AD27" t="n">
         <v>8.43008</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AE27" t="n">
         <v>4.731403188028096</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AF27" t="n">
         <v>1.304710629286917</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AG27" t="n">
         <v>-232.1598007510398</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AH27" t="n">
         <v>-58.56086474326035</v>
       </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>-60.10827007965867</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AK27" t="n">
         <v>47.36</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AL27" t="n">
         <v>56.86374264883423</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AM27" t="n">
         <v>87.0070898773281</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AN27" t="n">
         <v>5.235305334992733</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AO27" t="n">
         <v>-333.9697973517254</v>
       </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>-346.1094580267667</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AR27" t="n">
         <v>36.18304</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AS27" t="n">
         <v>4.444648368310663</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AT27" t="n">
         <v>-307.3933331589693</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AU27" t="n">
         <v>56.86374264883423</v>
       </c>
     </row>

--- a/Calculs/DataBase_template_V2_results.xlsx
+++ b/Calculs/DataBase_template_V2_results.xlsx
@@ -738,55 +738,55 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>8.885759999999999</v>
+        <v>8.9</v>
       </c>
       <c r="W2" t="n">
         <v>0.5</v>
       </c>
       <c r="X2" t="n">
-        <v>14.62656</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.51232</v>
+        <v>19.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.92</v>
+        <v>43.05</v>
       </c>
       <c r="AA2" t="n">
         <v>38.13888</v>
       </c>
       <c r="AB2" t="n">
-        <v>38.13888</v>
+        <v>30.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.62656</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>23.51232</v>
+        <v>19.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.49357735585264</v>
+        <v>1.875311140444443</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.638949243332875</v>
+        <v>3.07988043772671</v>
       </c>
       <c r="AG2" t="n">
-        <v>-122.3544895850075</v>
+        <v>-92.01749320654227</v>
       </c>
       <c r="AH2" t="n">
-        <v>-163.3321034910311</v>
+        <v>-138.2385307935553</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-167.6479528673327</v>
+        <v>-141.8913155869676</v>
       </c>
       <c r="AK2" t="n">
-        <v>49.92</v>
+        <v>43.05</v>
       </c>
       <c r="AL2" t="n">
         <v>56.86374264883423</v>
@@ -795,25 +795,25 @@
         <v>87.0070898773281</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.499690845535227</v>
+        <v>4.784932183648629</v>
       </c>
       <c r="AO2" t="n">
-        <v>-352.0762363103744</v>
+        <v>-303.5089249546653</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-364.8937016248078</v>
+        <v>-314.5113475818586</v>
       </c>
       <c r="AR2" t="n">
-        <v>38.13888</v>
+        <v>30.9</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.672226990056234</v>
+        <v>3.823162735491707</v>
       </c>
       <c r="AT2" t="n">
-        <v>-324.0458083646158</v>
+        <v>-262.4320350852569</v>
       </c>
       <c r="AU2" t="n">
         <v>56.86374264883423</v>
@@ -887,55 +887,55 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>80.57499999999999</v>
+        <v>74</v>
       </c>
       <c r="V3" t="n">
-        <v>24.475</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0.5</v>
       </c>
       <c r="X3" t="n">
-        <v>40.28749999999999</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.76249999999999</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="n">
-        <v>137.5</v>
+        <v>136.6125</v>
       </c>
       <c r="AA3" t="n">
         <v>105.05</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.05</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.28749999999999</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="n">
-        <v>64.76249999999999</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.26941812732654</v>
+        <v>8.513024404867082</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.711883232949232</v>
+        <v>5.548576407938572</v>
       </c>
       <c r="AG3" t="n">
-        <v>-254.0502141052115</v>
+        <v>-233.3194643969673</v>
       </c>
       <c r="AH3" t="n">
-        <v>-189.5641149225973</v>
+        <v>-108.301443769714</v>
       </c>
       <c r="AI3" t="n">
-        <v>-290.0738199257975</v>
+        <v>-165.7244753870605</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>137.5</v>
+        <v>136.6125</v>
       </c>
       <c r="AL3" t="n">
         <v>72.91807572168555</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>105.05</v>
+        <v>74</v>
       </c>
       <c r="AS3" t="n">
-        <v>11.33009045945918</v>
+        <v>7.898893743623517</v>
       </c>
       <c r="AT3" t="n">
-        <v>-355.9377605579324</v>
+        <v>-217.7061491385403</v>
       </c>
       <c r="AU3" t="n">
         <v>125.1339888675334</v>
@@ -1036,55 +1036,55 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>30.75328</v>
+        <v>23.6</v>
       </c>
       <c r="V4" t="n">
-        <v>9.34144</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W4" t="n">
         <v>0.5</v>
       </c>
       <c r="X4" t="n">
-        <v>15.37664</v>
+        <v>11.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.71808</v>
+        <v>21.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>52.48</v>
+        <v>46.56</v>
       </c>
       <c r="AA4" t="n">
         <v>40.09472</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.09472</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.37664</v>
+        <v>11.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>24.71808</v>
+        <v>21.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.645941277526973</v>
+        <v>2.030489565654026</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.952786359418296</v>
+        <v>3.454159277882226</v>
       </c>
       <c r="AG4" t="n">
-        <v>-97.93363492076122</v>
+        <v>-75.15405784781218</v>
       </c>
       <c r="AH4" t="n">
-        <v>-137.8146120070286</v>
+        <v>-120.4298885411738</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-145.550895115348</v>
+        <v>-127.1902726462378</v>
       </c>
       <c r="AK4" t="n">
-        <v>52.48</v>
+        <v>46.56</v>
       </c>
       <c r="AL4" t="n">
         <v>74.70889227763416</v>
@@ -1093,25 +1093,25 @@
         <v>99.67682849113592</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.013999932802434</v>
+        <v>5.377359360697706</v>
       </c>
       <c r="AO4" t="n">
-        <v>-298.2653651856763</v>
+        <v>-264.5178166494466</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-319.5161487481888</v>
+        <v>-283.3045674116769</v>
       </c>
       <c r="AR4" t="n">
-        <v>40.09472</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.991985829440042</v>
+        <v>4.197363275328645</v>
       </c>
       <c r="AT4" t="n">
-        <v>-260.5146970415208</v>
+        <v>-216.9030795741497</v>
       </c>
       <c r="AU4" t="n">
         <v>74.70889227763416</v>
@@ -1185,46 +1185,46 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>58.014</v>
+        <v>58</v>
       </c>
       <c r="V5" t="n">
-        <v>17.622</v>
+        <v>17.6</v>
       </c>
       <c r="W5" t="n">
         <v>0.25</v>
       </c>
       <c r="X5" t="n">
-        <v>43.5105</v>
+        <v>43.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.1255</v>
+        <v>32.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>99.00000000000001</v>
+        <v>104.7</v>
       </c>
       <c r="AA5" t="n">
         <v>75.63600000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.636</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.5105</v>
+        <v>43.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>32.1255</v>
+        <v>32.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.496715083444574</v>
+        <v>7.494905968210868</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.535117280040426</v>
+        <v>5.530723714472837</v>
       </c>
       <c r="AG5" t="n">
-        <v>-227.436941620864</v>
+        <v>-227.3820562969302</v>
       </c>
       <c r="AH5" t="n">
-        <v>-167.9255689555639</v>
+        <v>-167.7922760260105</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>99.00000000000001</v>
+        <v>104.7</v>
       </c>
       <c r="AL5" t="n">
         <v>89.00659508617927</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>75.636</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.024431339109613</v>
+        <v>9.020684696702247</v>
       </c>
       <c r="AT5" t="n">
-        <v>-406.0859733077739</v>
+        <v>-405.8909934450537</v>
       </c>
       <c r="AU5" t="n">
         <v>89.00659508617927</v>
@@ -1334,55 +1334,55 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>30.0032</v>
+        <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>9.1136</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
         <v>0.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15.0016</v>
+        <v>11.15</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.1152</v>
+        <v>21.15</v>
       </c>
       <c r="Z6" t="n">
-        <v>51.2</v>
+        <v>45.105</v>
       </c>
       <c r="AA6" t="n">
         <v>39.1168</v>
       </c>
       <c r="AB6" t="n">
-        <v>39.1168</v>
+        <v>32.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.0016</v>
+        <v>11.15</v>
       </c>
       <c r="AD6" t="n">
-        <v>24.1152</v>
+        <v>21.15</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.557515236771938</v>
+        <v>1.90088356508687</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.428604519469189</v>
+        <v>3.007024017498233</v>
       </c>
       <c r="AG6" t="n">
-        <v>-125.4917841897513</v>
+        <v>-93.27227720481329</v>
       </c>
       <c r="AH6" t="n">
-        <v>-143.3452705618655</v>
+        <v>-125.7195657669625</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-147.3637131864309</v>
+        <v>-129.2439015182546</v>
       </c>
       <c r="AK6" t="n">
-        <v>51.2</v>
+        <v>45.105</v>
       </c>
       <c r="AL6" t="n">
         <v>56.86374264883423</v>
@@ -1391,25 +1391,25 @@
         <v>120.8739950107173</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.214553502602876</v>
+        <v>4.6264488920297</v>
       </c>
       <c r="AO6" t="n">
-        <v>-308.7381549629059</v>
+        <v>-271.9074029226136</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-320.7166777822678</v>
+        <v>-282.4192342499698</v>
       </c>
       <c r="AR6" t="n">
-        <v>39.1168</v>
+        <v>32.3</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.785503516481082</v>
+        <v>3.988808969475418</v>
       </c>
       <c r="AT6" t="n">
-        <v>-332.3735469549238</v>
+        <v>-274.3439545821175</v>
       </c>
       <c r="AU6" t="n">
         <v>56.86374264883423</v>
@@ -1483,55 +1483,55 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>96.69</v>
+        <v>85</v>
       </c>
       <c r="V7" t="n">
-        <v>29.37</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0.5</v>
       </c>
       <c r="X7" t="n">
-        <v>48.345</v>
+        <v>42.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.715</v>
+        <v>42.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>165</v>
+        <v>158.805</v>
       </c>
       <c r="AA7" t="n">
         <v>126.06</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.06</v>
+        <v>85</v>
       </c>
       <c r="AC7" t="n">
-        <v>48.345</v>
+        <v>42.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>77.715</v>
+        <v>42.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.329683426049526</v>
+        <v>7.322609279286477</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.11428068073687</v>
+        <v>5.531196409075685</v>
       </c>
       <c r="AG7" t="n">
-        <v>-252.707712912071</v>
+        <v>-222.1548825889548</v>
       </c>
       <c r="AH7" t="n">
-        <v>-231.7197970508565</v>
+        <v>-126.7205993007965</v>
       </c>
       <c r="AI7" t="n">
-        <v>-281.0509325319844</v>
+        <v>-153.6983160600827</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>165</v>
+        <v>158.805</v>
       </c>
       <c r="AL7" t="n">
         <v>89.00659508617927</v>
@@ -1552,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>126.06</v>
+        <v>85</v>
       </c>
       <c r="AS7" t="n">
-        <v>11.35789359682461</v>
+        <v>7.887684191434643</v>
       </c>
       <c r="AT7" t="n">
-        <v>-410.8533807704802</v>
+        <v>-258.7984594226238</v>
       </c>
       <c r="AU7" t="n">
         <v>140.7031312737897</v>
@@ -1632,55 +1632,55 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>52.5056</v>
+        <v>40.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9488</v>
+        <v>14.7</v>
       </c>
       <c r="W8" t="n">
         <v>0.5</v>
       </c>
       <c r="X8" t="n">
-        <v>26.2528</v>
+        <v>20.35</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.2016</v>
+        <v>35.05</v>
       </c>
       <c r="Z8" t="n">
-        <v>89.60000000000001</v>
+        <v>76.995</v>
       </c>
       <c r="AA8" t="n">
         <v>68.45440000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>68.45439999999999</v>
+        <v>55.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>26.2528</v>
+        <v>20.35</v>
       </c>
       <c r="AD8" t="n">
-        <v>42.2016</v>
+        <v>35.05</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.517460717728978</v>
+        <v>3.50173412381859</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.014952728471886</v>
+        <v>4.995642182593538</v>
       </c>
       <c r="AG8" t="n">
-        <v>-167.203766937885</v>
+        <v>-129.60890484771</v>
       </c>
       <c r="AH8" t="n">
-        <v>-188.2300270227148</v>
+        <v>-156.3320453998462</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-199.4790356197271</v>
+        <v>-165.6747658494331</v>
       </c>
       <c r="AK8" t="n">
-        <v>89.60000000000001</v>
+        <v>76.995</v>
       </c>
       <c r="AL8" t="n">
         <v>74.70889227763416</v>
@@ -1689,25 +1689,25 @@
         <v>159.5985530758954</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.807618057789405</v>
+        <v>7.695628976545766</v>
       </c>
       <c r="AO8" t="n">
-        <v>-407.5925883547391</v>
+        <v>-349.9679606729107</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-439.3725020317615</v>
+        <v>-377.0680786557943</v>
       </c>
       <c r="AR8" t="n">
-        <v>68.45439999999999</v>
+        <v>55.4</v>
       </c>
       <c r="AS8" t="n">
-        <v>10.909282027547</v>
+        <v>6.745226056500311</v>
       </c>
       <c r="AT8" t="n">
-        <v>-436.7144597097943</v>
+        <v>-360.4057578073212</v>
       </c>
       <c r="AU8" t="n">
         <v>74.70889227763416</v>
@@ -1781,55 +1781,55 @@
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>70.90600000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="W9" t="n">
         <v>0.25</v>
       </c>
       <c r="X9" t="n">
-        <v>53.1795</v>
+        <v>53.175</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.2645</v>
+        <v>46.725</v>
       </c>
       <c r="Z9" t="n">
-        <v>121</v>
+        <v>139.215</v>
       </c>
       <c r="AA9" t="n">
         <v>92.444</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.444</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>53.1795</v>
+        <v>53.175</v>
       </c>
       <c r="AD9" t="n">
-        <v>39.2645</v>
+        <v>46.725</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.551286630820329</v>
+        <v>8.550563028871485</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.752865630794301</v>
+        <v>6.845945996991272</v>
       </c>
       <c r="AG9" t="n">
-        <v>-237.0188999781586</v>
+        <v>-236.9988436585259</v>
       </c>
       <c r="AH9" t="n">
-        <v>-147.2168470480937</v>
+        <v>-175.1889665810638</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-159.8466301427493</v>
+        <v>-190.2184872701795</v>
       </c>
       <c r="AK9" t="n">
-        <v>121</v>
+        <v>139.215</v>
       </c>
       <c r="AL9" t="n">
         <v>103.3798257448046</v>
@@ -1838,25 +1838,25 @@
         <v>153.9397267842878</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.66891043328229</v>
+        <v>15.24283270133277</v>
       </c>
       <c r="AO9" t="n">
-        <v>-435.395687417454</v>
+        <v>-436.8278765666142</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-665.3954329157008</v>
+        <v>-1089.484351857755</v>
       </c>
       <c r="AR9" t="n">
-        <v>92.444</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AS9" t="n">
-        <v>10.15671636660574</v>
+        <v>16.40119627696764</v>
       </c>
       <c r="AT9" t="n">
-        <v>-424.5209543560929</v>
+        <v>-440.8154050648382</v>
       </c>
       <c r="AU9" t="n">
         <v>103.3798257448046</v>
@@ -1930,55 +1930,55 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>5.850624</v>
+        <v>4.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.777152</v>
+        <v>7</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.850624</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.777152</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.984</v>
+        <v>16.17</v>
       </c>
       <c r="AA10" t="n">
         <v>7.627776</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.627776</v>
+        <v>11.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.850624</v>
+        <v>4.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.777152</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.665575064027908</v>
+        <v>1.195670383032098</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.4134653417236674</v>
+        <v>1.628593047789763</v>
       </c>
       <c r="AG10" t="n">
-        <v>-109.7952510770359</v>
+        <v>-78.81894948893492</v>
       </c>
       <c r="AH10" t="n">
-        <v>-23.42092314839613</v>
+        <v>-92.2523577267296</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-24.44950777205348</v>
+        <v>-96.30383580266312</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.984</v>
+        <v>16.17</v>
       </c>
       <c r="AL10" t="n">
         <v>25.25707130434771</v>
@@ -1987,25 +1987,25 @@
         <v>54.76274042434937</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.715917820668678</v>
+        <v>2.750060684776605</v>
       </c>
       <c r="AO10" t="n">
-        <v>-132.7845009825359</v>
+        <v>-215.1124057771476</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-139.706718283484</v>
+        <v>-226.3655213814687</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.627776</v>
+        <v>11.2</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.591225928576793</v>
+        <v>2.318198304711901</v>
       </c>
       <c r="AT10" t="n">
-        <v>-144.7506290218388</v>
+        <v>-212.5959530998292</v>
       </c>
       <c r="AU10" t="n">
         <v>25.25707130434771</v>
@@ -2079,46 +2079,46 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>19.338</v>
+        <v>17</v>
       </c>
       <c r="V11" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>19.338</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>33</v>
+        <v>42.45</v>
       </c>
       <c r="AA11" t="n">
         <v>25.212</v>
       </c>
       <c r="AB11" t="n">
-        <v>25.212</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.338</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.109558774843754</v>
+        <v>2.733607362309645</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9445417438945193</v>
+        <v>2.090405630001491</v>
       </c>
       <c r="AG11" t="n">
-        <v>-86.18869090114853</v>
+        <v>-75.76831861203461</v>
       </c>
       <c r="AH11" t="n">
-        <v>-26.18018256041714</v>
+        <v>-57.94047893861471</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>33</v>
+        <v>42.45</v>
       </c>
       <c r="AL11" t="n">
         <v>103.3798257448046</v>
@@ -2136,10 +2136,10 @@
         <v>103.3798257448046</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.94278209859754</v>
+        <v>5.012017415451155</v>
       </c>
       <c r="AO11" t="n">
-        <v>-150.6876485289022</v>
+        <v>-193.9976767950951</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>25.212</v>
+        <v>30</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.040872438766915</v>
+        <v>3.597536885814519</v>
       </c>
       <c r="AT11" t="n">
-        <v>-115.0500149832068</v>
+        <v>-136.9539552114683</v>
       </c>
       <c r="AU11" t="n">
         <v>103.3798257448046</v>
@@ -2228,46 +2228,46 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>6.750719999999999</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05056</v>
+        <v>7</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>6.750719999999999</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.05056</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.52</v>
+        <v>17.25</v>
       </c>
       <c r="AA12" t="n">
         <v>8.801279999999998</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.801279999999998</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.750719999999999</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.05056</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.921817381570665</v>
+        <v>1.423416635655408</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.583754377428474</v>
+        <v>1.992783239564765</v>
       </c>
       <c r="AG12" t="n">
-        <v>-126.6868281658106</v>
+        <v>-93.83208594403841</v>
       </c>
       <c r="AH12" t="n">
-        <v>-38.48170320437851</v>
+        <v>-131.3649206544893</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>11.52</v>
+        <v>17.25</v>
       </c>
       <c r="AL12" t="n">
         <v>25.25707130434771</v>
@@ -2285,10 +2285,10 @@
         <v>25.25707130434771</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.382740925945498</v>
+        <v>3.522024890994576</v>
       </c>
       <c r="AO12" t="n">
-        <v>-218.6753340029217</v>
+        <v>-327.5853925262993</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>8.801279999999998</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.831345369175367</v>
+        <v>2.479374679784665</v>
       </c>
       <c r="AT12" t="n">
-        <v>-167.0343316718728</v>
+        <v>-227.7949643538419</v>
       </c>
       <c r="AU12" t="n">
         <v>25.25707130434771</v>
@@ -2377,55 +2377,55 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>70.90600000000001</v>
+        <v>61.5</v>
       </c>
       <c r="V13" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.90600000000001</v>
+        <v>61.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>121</v>
+        <v>115.275</v>
       </c>
       <c r="AA13" t="n">
         <v>92.444</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.444</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="n">
-        <v>70.90600000000001</v>
+        <v>61.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.40171550776045</v>
+        <v>9.889226634237817</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.155655107184544</v>
+        <v>3.150087510654088</v>
       </c>
       <c r="AG13" t="n">
-        <v>-316.0251999708781</v>
+        <v>-274.1030349788311</v>
       </c>
       <c r="AH13" t="n">
-        <v>-80.7537712621285</v>
+        <v>-80.61129548406363</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-87.68166460834941</v>
+        <v>-87.52696578510132</v>
       </c>
       <c r="AK13" t="n">
-        <v>121</v>
+        <v>115.275</v>
       </c>
       <c r="AL13" t="n">
         <v>103.3798257448046</v>
@@ -2434,25 +2434,25 @@
         <v>153.9397267842878</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.66891043328229</v>
+        <v>11.61987626790298</v>
       </c>
       <c r="AO13" t="n">
-        <v>-435.395687417454</v>
+        <v>-434.9672753938653</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-665.3954329157008</v>
+        <v>-538.4279603848088</v>
       </c>
       <c r="AR13" t="n">
-        <v>92.444</v>
+        <v>83</v>
       </c>
       <c r="AS13" t="n">
-        <v>10.15671636660574</v>
+        <v>9.256880292229024</v>
       </c>
       <c r="AT13" t="n">
-        <v>-424.5209543560929</v>
+        <v>-380.7748511391752</v>
       </c>
       <c r="AU13" t="n">
         <v>103.3798257448046</v>
@@ -2526,55 +2526,55 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>42.75456000000001</v>
+        <v>33</v>
       </c>
       <c r="V14" t="n">
-        <v>12.98688</v>
+        <v>12.7</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>42.75456000000001</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.98688</v>
+        <v>12.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>72.96000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="AA14" t="n">
         <v>55.74144</v>
       </c>
       <c r="AB14" t="n">
-        <v>55.74144</v>
+        <v>45.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>42.75456000000001</v>
+        <v>33</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.98688</v>
+        <v>12.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.802121027587839</v>
+        <v>6.793895058454549</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.213297124328229</v>
+        <v>2.164405537757943</v>
       </c>
       <c r="AG14" t="n">
-        <v>-404.4442731001347</v>
+        <v>-312.1692987205211</v>
       </c>
       <c r="AH14" t="n">
-        <v>-86.15197546684658</v>
+        <v>-84.24887877090518</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-90.7026434746667</v>
+        <v>-88.69902269595831</v>
       </c>
       <c r="AK14" t="n">
-        <v>72.96000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="AL14" t="n">
         <v>50.29503576592909</v>
@@ -2583,25 +2583,25 @@
         <v>107.9564542421578</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.177153109214244</v>
+        <v>7.534721304847527</v>
       </c>
       <c r="AO14" t="n">
-        <v>-435.4326783949165</v>
+        <v>-428.7105461954094</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-651.4881543681898</v>
+        <v>-457.2719056796838</v>
       </c>
       <c r="AR14" t="n">
-        <v>55.74144</v>
+        <v>45.7</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>7.763394975940503</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-435.573692360293</v>
       </c>
       <c r="AU14" t="n">
         <v>50.29503576592909</v>
@@ -2675,55 +2675,55 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>93.467</v>
+        <v>90</v>
       </c>
       <c r="V15" t="n">
-        <v>28.391</v>
+        <v>29</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>93.467</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
-        <v>28.391</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>159.5</v>
+        <v>165</v>
       </c>
       <c r="AA15" t="n">
         <v>121.858</v>
       </c>
       <c r="AB15" t="n">
-        <v>121.858</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="n">
-        <v>93.467</v>
+        <v>90</v>
       </c>
       <c r="AD15" t="n">
-        <v>28.391</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>12.99370797961613</v>
+        <v>12.51172839788858</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.585038060347737</v>
+        <v>3.661938774614647</v>
       </c>
       <c r="AG15" t="n">
-        <v>-296.4277930297411</v>
+        <v>-285.4323062971604</v>
       </c>
       <c r="AH15" t="n">
-        <v>-76.31927991067322</v>
+        <v>-77.95636354512072</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-97.62908726815098</v>
+        <v>-99.72327606552703</v>
       </c>
       <c r="AK15" t="n">
-        <v>159.5</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="n">
         <v>141.9525202393384</v>
@@ -2732,25 +2732,25 @@
         <v>199.1085247965108</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.34693922504519</v>
+        <v>14.0835888967195</v>
       </c>
       <c r="AO15" t="n">
-        <v>-434.9350624391309</v>
+        <v>-435.238855261251</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-635.9910063461444</v>
+        <v>-741.5755952577596</v>
       </c>
       <c r="AR15" t="n">
-        <v>121.858</v>
+        <v>119</v>
       </c>
       <c r="AS15" t="n">
-        <v>11.45054088172761</v>
+        <v>11.23127401060868</v>
       </c>
       <c r="AT15" t="n">
-        <v>-400.9178273199688</v>
+        <v>-391.370209527395</v>
       </c>
       <c r="AU15" t="n">
         <v>141.9525202393384</v>
@@ -2824,55 +2824,55 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>33.7536</v>
+        <v>25</v>
       </c>
       <c r="V16" t="n">
-        <v>10.2528</v>
+        <v>10.4</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.7536</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.2528</v>
+        <v>10.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>57.6</v>
+        <v>49.35</v>
       </c>
       <c r="AA16" t="n">
         <v>44.0064</v>
       </c>
       <c r="AB16" t="n">
-        <v>44.0064</v>
+        <v>35.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>33.7536</v>
+        <v>25</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.2528</v>
+        <v>10.4</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.754409282736865</v>
+        <v>4.262070773737374</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.586808929026338</v>
+        <v>1.609590728451318</v>
       </c>
       <c r="AG16" t="n">
-        <v>-282.3565144269404</v>
+        <v>-209.1306663785051</v>
       </c>
       <c r="AH16" t="n">
-        <v>-71.22268170246876</v>
+        <v>-72.24523022278001</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-73.10465993123171</v>
+        <v>-74.15422801725855</v>
       </c>
       <c r="AK16" t="n">
-        <v>57.6</v>
+        <v>49.35</v>
       </c>
       <c r="AL16" t="n">
         <v>56.86374264883423</v>
@@ -2881,25 +2881,25 @@
         <v>87.0070898773281</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.280569330321651</v>
+        <v>5.440998928896971</v>
       </c>
       <c r="AO16" t="n">
-        <v>-406.4318349903529</v>
+        <v>-348.0442084098232</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-421.2976336971287</v>
+        <v>-360.7105448687834</v>
       </c>
       <c r="AR16" t="n">
-        <v>44.0064</v>
+        <v>35.4</v>
       </c>
       <c r="AS16" t="n">
-        <v>5.346701899016952</v>
+        <v>4.353153640646241</v>
       </c>
       <c r="AT16" t="n">
-        <v>-374.0274556359911</v>
+        <v>-300.7274639411655</v>
       </c>
       <c r="AU16" t="n">
         <v>56.86374264883423</v>
@@ -2973,55 +2973,55 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>27.75296</v>
+        <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
         <v>0.5</v>
       </c>
       <c r="X17" t="n">
-        <v>13.87648</v>
+        <v>10.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.30656</v>
+        <v>20.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>47.36</v>
+        <v>42.81</v>
       </c>
       <c r="AA17" t="n">
         <v>36.18304</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.18304</v>
+        <v>30.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>13.87648</v>
+        <v>10.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>22.30656</v>
+        <v>20.3</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.365701594014048</v>
+        <v>1.755973158779796</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.452337040105064</v>
+        <v>3.141787317254269</v>
       </c>
       <c r="AG17" t="n">
-        <v>-116.0799003755199</v>
+        <v>-86.16183454794411</v>
       </c>
       <c r="AH17" t="n">
-        <v>-154.9560944488976</v>
+        <v>-141.0171964397198</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-159.0506187672474</v>
+        <v>-144.7434037906465</v>
       </c>
       <c r="AK17" t="n">
-        <v>47.36</v>
+        <v>42.81</v>
       </c>
       <c r="AL17" t="n">
         <v>56.86374264883423</v>
@@ -3030,25 +3030,25 @@
         <v>87.0070898773281</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.235305334992733</v>
+        <v>4.759648782203813</v>
       </c>
       <c r="AO17" t="n">
-        <v>-333.9697973517254</v>
+        <v>-301.8137327497956</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-346.1094580267667</v>
+        <v>-312.7529456637564</v>
       </c>
       <c r="AR17" t="n">
-        <v>36.18304</v>
+        <v>30.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.444648368310663</v>
+        <v>3.787578357657945</v>
       </c>
       <c r="AT17" t="n">
-        <v>-307.3933331589693</v>
+        <v>-259.8797389787048</v>
       </c>
       <c r="AU17" t="n">
         <v>56.86374264883423</v>
@@ -3122,55 +3122,55 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>96.69</v>
+        <v>85.5</v>
       </c>
       <c r="V18" t="n">
-        <v>29.37</v>
+        <v>29.4</v>
       </c>
       <c r="W18" t="n">
         <v>0.5</v>
       </c>
       <c r="X18" t="n">
-        <v>48.345</v>
+        <v>42.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>77.715</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>165</v>
+        <v>159.525</v>
       </c>
       <c r="AA18" t="n">
         <v>126.06</v>
       </c>
       <c r="AB18" t="n">
-        <v>126.06</v>
+        <v>114.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>48.345</v>
+        <v>42.75</v>
       </c>
       <c r="AD18" t="n">
-        <v>77.715</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.329683426049526</v>
+        <v>7.365683451517571</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.371175636261</v>
+        <v>10.5569107914332</v>
       </c>
       <c r="AG18" t="n">
-        <v>-252.707712912071</v>
+        <v>-223.4616760159487</v>
       </c>
       <c r="AH18" t="n">
-        <v>-295.107482344913</v>
+        <v>-273.9754854427777</v>
       </c>
       <c r="AI18" t="n">
-        <v>-356.3343019510282</v>
+        <v>-330.8179873353495</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>165</v>
+        <v>159.525</v>
       </c>
       <c r="AL18" t="n">
         <v>89.00659508617927</v>
@@ -3191,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>126.06</v>
+        <v>114.9</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>-450.2825521338095</v>
       </c>
       <c r="AU18" t="n">
         <v>115.1806044697896</v>
@@ -3271,55 +3271,55 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>56.256</v>
+        <v>43.2</v>
       </c>
       <c r="V19" t="n">
-        <v>17.088</v>
+        <v>16.1</v>
       </c>
       <c r="W19" t="n">
         <v>0.5</v>
       </c>
       <c r="X19" t="n">
-        <v>28.128</v>
+        <v>21.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.216</v>
+        <v>37.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>96</v>
+        <v>82.47000000000001</v>
       </c>
       <c r="AA19" t="n">
         <v>73.34399999999999</v>
       </c>
       <c r="AB19" t="n">
-        <v>73.34399999999999</v>
+        <v>59.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>28.128</v>
+        <v>21.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>45.216</v>
+        <v>37.7</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.280120119748839</v>
+        <v>3.286781661923168</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.188690923495972</v>
+        <v>5.1599798260748</v>
       </c>
       <c r="AG19" t="n">
-        <v>-135.3677785486433</v>
+        <v>-103.9513657796749</v>
       </c>
       <c r="AH19" t="n">
-        <v>-179.2300179108769</v>
+        <v>-149.4376255139787</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-190.4522786784644</v>
+        <v>-158.7944733319645</v>
       </c>
       <c r="AK19" t="n">
-        <v>96</v>
+        <v>82.47000000000001</v>
       </c>
       <c r="AL19" t="n">
         <v>97.15351708232025</v>
@@ -3328,25 +3328,25 @@
         <v>151.3768670716909</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.094222001523686</v>
+        <v>7.951490734612971</v>
       </c>
       <c r="AO19" t="n">
-        <v>-389.6174552601787</v>
+        <v>-334.3364339847095</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-421.8408903840506</v>
+        <v>-361.7907449065456</v>
       </c>
       <c r="AR19" t="n">
-        <v>73.34399999999999</v>
+        <v>59.3</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.831188389844293</v>
+        <v>6.452189642006727</v>
       </c>
       <c r="AT19" t="n">
-        <v>-362.0044774989597</v>
+        <v>-292.3426216893612</v>
       </c>
       <c r="AU19" t="n">
         <v>97.15351708232025</v>
@@ -3420,55 +3420,55 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>70.90600000000001</v>
+        <v>70</v>
       </c>
       <c r="V20" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="W20" t="n">
         <v>0.25</v>
       </c>
       <c r="X20" t="n">
-        <v>53.1795</v>
+        <v>52.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>39.2645</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="n">
-        <v>121</v>
+        <v>126.75</v>
       </c>
       <c r="AA20" t="n">
         <v>92.444</v>
       </c>
       <c r="AB20" t="n">
-        <v>92.444</v>
+        <v>91.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>53.1795</v>
+        <v>52.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>39.2645</v>
+        <v>39</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.89013350096087</v>
+        <v>14.69987511729982</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.342710364842726</v>
+        <v>7.29324718839834</v>
       </c>
       <c r="AG20" t="n">
-        <v>-401.7630434958109</v>
+        <v>-396.6295242251256</v>
       </c>
       <c r="AH20" t="n">
-        <v>-154.0415011280215</v>
+        <v>-153.0038213651731</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-238.3457218806208</v>
+        <v>-236.7401381233484</v>
       </c>
       <c r="AK20" t="n">
-        <v>121</v>
+        <v>126.75</v>
       </c>
       <c r="AL20" t="n">
         <v>60.84057951309246</v>
@@ -3477,19 +3477,19 @@
         <v>168.0345242760564</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.20166512638405</v>
+        <v>14.70951775202961</v>
       </c>
       <c r="AO20" t="n">
-        <v>-435.0793628895784</v>
+        <v>-435.2435338668013</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-847.0417297925053</v>
+        <v>-918.5481485697716</v>
       </c>
       <c r="AR20" t="n">
-        <v>92.444</v>
+        <v>91.5</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -3569,55 +3569,55 @@
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>2.100224</v>
+        <v>1.6</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.5</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2.100224</v>
+        <v>1.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.584</v>
+        <v>11.91</v>
       </c>
       <c r="AA21" t="n">
         <v>2.738176</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.738176</v>
+        <v>8.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.100224</v>
+        <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5979027869104363</v>
+        <v>0.4554851871092747</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.1484202634409113</v>
+        <v>1.512264972947638</v>
       </c>
       <c r="AG21" t="n">
-        <v>-39.41365312961763</v>
+        <v>-30.0263212836012</v>
       </c>
       <c r="AH21" t="n">
-        <v>-8.407507527753864</v>
+        <v>-85.66290360339177</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-8.776739415161794</v>
+        <v>-89.42499038818717</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.584</v>
+        <v>11.91</v>
       </c>
       <c r="AL21" t="n">
         <v>25.25707130434771</v>
@@ -3626,25 +3626,25 @@
         <v>54.76274042434937</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.6224919026573055</v>
+        <v>2.040323812434051</v>
       </c>
       <c r="AO21" t="n">
-        <v>-47.65372752960639</v>
+        <v>-158.4124718660923</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-50.12936202686662</v>
+        <v>-166.6795408907302</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.738176</v>
+        <v>8.1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5772155380021164</v>
+        <v>1.688003650169319</v>
       </c>
       <c r="AT21" t="n">
-        <v>-51.9434008359583</v>
+        <v>-153.7172346992104</v>
       </c>
       <c r="AU21" t="n">
         <v>25.25707130434771</v>
@@ -3718,55 +3718,55 @@
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>19.338</v>
+        <v>15.6</v>
       </c>
       <c r="V22" t="n">
-        <v>5.874</v>
+        <v>7</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>19.338</v>
+        <v>15.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.874</v>
+        <v>7</v>
       </c>
       <c r="Z22" t="n">
-        <v>190</v>
+        <v>31.56</v>
       </c>
       <c r="AA22" t="n">
         <v>25.212</v>
       </c>
       <c r="AB22" t="n">
-        <v>25.212</v>
+        <v>22.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>19.338</v>
+        <v>15.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.874</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>3.613198426782055</v>
+        <v>2.914773785179444</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.804673487352945</v>
+        <v>0.958923120781514</v>
       </c>
       <c r="AG22" t="n">
-        <v>-121.3974375236764</v>
+        <v>-97.93153507960245</v>
       </c>
       <c r="AH22" t="n">
-        <v>-21.54102228513154</v>
+        <v>-25.67026830029295</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-27.12049253787868</v>
+        <v>-32.31927949696131</v>
       </c>
       <c r="AK22" t="n">
-        <v>190</v>
+        <v>31.56</v>
       </c>
       <c r="AL22" t="n">
         <v>75.20242638779567</v>
@@ -3775,25 +3775,25 @@
         <v>197.2680150274209</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.15534549996777</v>
+        <v>3.217199855619494</v>
       </c>
       <c r="AO22" t="n">
-        <v>-437.0662408139761</v>
+        <v>-116.7905171611674</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-1363.735375198369</v>
+        <v>-151.3228452570115</v>
       </c>
       <c r="AR22" t="n">
-        <v>25.212</v>
+        <v>22.6</v>
       </c>
       <c r="AS22" t="n">
-        <v>3.483743857572264</v>
+        <v>3.134576759748009</v>
       </c>
       <c r="AT22" t="n">
-        <v>-161.5493429533955</v>
+        <v>-144.7791313454822</v>
       </c>
       <c r="AU22" t="n">
         <v>75.20242638779567</v>
@@ -3867,55 +3867,55 @@
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>5.700608</v>
+        <v>4.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.731584</v>
+        <v>6.5</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>5.700608</v>
+        <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.731584</v>
+        <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.728</v>
+        <v>15.69</v>
       </c>
       <c r="AA23" t="n">
         <v>7.432192</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.432192</v>
+        <v>10.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.700608</v>
+        <v>4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.731584</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.622868011104113</v>
+        <v>1.252606903717085</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.4028636662948548</v>
+        <v>1.512264972947638</v>
       </c>
       <c r="AG23" t="n">
-        <v>-106.9799882289067</v>
+        <v>-82.57223388344597</v>
       </c>
       <c r="AH23" t="n">
-        <v>-22.82038665741162</v>
+        <v>-85.66290360339177</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-23.8225973163598</v>
+        <v>-89.42499038818717</v>
       </c>
       <c r="AK23" t="n">
-        <v>9.728</v>
+        <v>15.69</v>
       </c>
       <c r="AL23" t="n">
         <v>25.25707130434771</v>
@@ -3924,25 +3924,25 @@
         <v>54.76274042434937</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.672634943753077</v>
+        <v>2.6706323428165</v>
       </c>
       <c r="AO23" t="n">
-        <v>-129.3783977379728</v>
+        <v>-208.7226360725648</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-136.1220980797392</v>
+        <v>-219.6384931716611</v>
       </c>
       <c r="AR23" t="n">
-        <v>7.432192</v>
+        <v>10.9</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.551082919378423</v>
+        <v>2.257602506411586</v>
       </c>
       <c r="AT23" t="n">
-        <v>-141.0370580091802</v>
+        <v>-206.8968035202705</v>
       </c>
       <c r="AU23" t="n">
         <v>25.25707130434771</v>
@@ -4016,55 +4016,55 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>70.90600000000001</v>
+        <v>70</v>
       </c>
       <c r="V24" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>70.90600000000001</v>
+        <v>70</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>121</v>
+        <v>126.75</v>
       </c>
       <c r="AA24" t="n">
         <v>92.444</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.444</v>
+        <v>91.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>70.90600000000001</v>
+        <v>70</v>
       </c>
       <c r="AD24" t="n">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>21.75704653924921</v>
+        <v>21.47904631127751</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.073579907939426</v>
+        <v>5.064628471571063</v>
       </c>
       <c r="AG24" t="n">
-        <v>-480.3995062376544</v>
+        <v>-474.2612111335542</v>
       </c>
       <c r="AH24" t="n">
-        <v>-98.59163191198238</v>
+        <v>-98.41768437680479</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-176.4738525641351</v>
+        <v>-176.1624955951762</v>
       </c>
       <c r="AK24" t="n">
-        <v>121</v>
+        <v>126.75</v>
       </c>
       <c r="AL24" t="n">
         <v>66.18927326840991</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>92.444</v>
+        <v>91.5</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -4165,55 +4165,55 @@
         <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>56.256</v>
+        <v>41.3</v>
       </c>
       <c r="V25" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>56.256</v>
+        <v>41.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>96</v>
+        <v>79.005</v>
       </c>
       <c r="AA25" t="n">
         <v>73.34399999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>73.34399999999999</v>
+        <v>56.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>56.256</v>
+        <v>41.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.680272966562086</v>
+        <v>7.106713479789072</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.316246672997175</v>
+        <v>2.100996221410125</v>
       </c>
       <c r="AG25" t="n">
-        <v>-358.293786295468</v>
+        <v>-263.0392024673425</v>
       </c>
       <c r="AH25" t="n">
-        <v>-69.31607483487772</v>
+        <v>-62.87448267442679</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-73.57069455546674</v>
+        <v>-66.73371755674945</v>
       </c>
       <c r="AK25" t="n">
-        <v>96</v>
+        <v>79.005</v>
       </c>
       <c r="AL25" t="n">
         <v>74.70889227763416</v>
@@ -4222,25 +4222,25 @@
         <v>188.8910975819768</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.987234136415639</v>
+        <v>7.556828175925738</v>
       </c>
       <c r="AO25" t="n">
-        <v>-396.6580514282147</v>
+        <v>-326.0894219740614</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-428.7220549557254</v>
+        <v>-352.2135618344415</v>
       </c>
       <c r="AR25" t="n">
-        <v>73.34399999999999</v>
+        <v>56.8</v>
       </c>
       <c r="AS25" t="n">
-        <v>16.66666666666667</v>
+        <v>6.901030236528528</v>
       </c>
       <c r="AT25" t="n">
-        <v>-457.6017358306436</v>
+        <v>-369.5565771957141</v>
       </c>
       <c r="AU25" t="n">
         <v>74.70889227763416</v>
@@ -4314,55 +4314,55 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>93.467</v>
+        <v>85.5</v>
       </c>
       <c r="V26" t="n">
-        <v>28.391</v>
+        <v>28.4</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>93.467</v>
+        <v>85.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.391</v>
+        <v>28.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>159.5</v>
+        <v>158.025</v>
       </c>
       <c r="AA26" t="n">
         <v>121.858</v>
       </c>
       <c r="AB26" t="n">
-        <v>121.858</v>
+        <v>113.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>93.467</v>
+        <v>85.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28.391</v>
+        <v>28.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>14.95672491179988</v>
+        <v>13.681834015844</v>
       </c>
       <c r="AF26" t="n">
-        <v>4.013079283293444</v>
+        <v>4.014351436917818</v>
       </c>
       <c r="AG26" t="n">
-        <v>-324.2318911794311</v>
+        <v>-296.5948056088391</v>
       </c>
       <c r="AH26" t="n">
-        <v>-80.765831092532</v>
+        <v>-80.79143401176105</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-115.1822704372775</v>
+        <v>-115.2187834320271</v>
       </c>
       <c r="AK26" t="n">
-        <v>159.5</v>
+        <v>158.025</v>
       </c>
       <c r="AL26" t="n">
         <v>128.9402449739937</v>
@@ -4371,25 +4371,25 @@
         <v>186.5951698893791</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.89478858771068</v>
+        <v>14.73546343200986</v>
       </c>
       <c r="AO26" t="n">
-        <v>-435.3451015598433</v>
+        <v>-435.2677434536823</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-877.2057889859425</v>
+        <v>-847.2957898396253</v>
       </c>
       <c r="AR26" t="n">
-        <v>121.858</v>
+        <v>113.9</v>
       </c>
       <c r="AS26" t="n">
-        <v>13.79364486805131</v>
+        <v>12.1711465216812</v>
       </c>
       <c r="AT26" t="n">
-        <v>-435.2899654962274</v>
+        <v>-410.9569626281269</v>
       </c>
       <c r="AU26" t="n">
         <v>128.9402449739937</v>
@@ -4463,55 +4463,55 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>27.75296</v>
+        <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>27.75296</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>47.36</v>
+        <v>43.35</v>
       </c>
       <c r="AA27" t="n">
         <v>36.18304</v>
       </c>
       <c r="AB27" t="n">
-        <v>36.18304</v>
+        <v>31</v>
       </c>
       <c r="AC27" t="n">
-        <v>27.75296</v>
+        <v>21</v>
       </c>
       <c r="AD27" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.731403188028096</v>
+        <v>3.580139449939393</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.304710629286917</v>
+        <v>1.547683659646847</v>
       </c>
       <c r="AG27" t="n">
-        <v>-232.1598007510398</v>
+        <v>-175.6697597579443</v>
       </c>
       <c r="AH27" t="n">
-        <v>-58.56086474326035</v>
+        <v>-69.46656579866053</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-60.10827007965867</v>
+        <v>-71.30214085531044</v>
       </c>
       <c r="AK27" t="n">
-        <v>47.36</v>
+        <v>43.35</v>
       </c>
       <c r="AL27" t="n">
         <v>56.86374264883423</v>
@@ -4520,25 +4520,25 @@
         <v>87.0070898773281</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.235305334992733</v>
+        <v>4.816513245252942</v>
       </c>
       <c r="AO27" t="n">
-        <v>-333.9697973517254</v>
+        <v>-305.6279686097047</v>
       </c>
       <c r="AP27" t="n">
         <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-346.1094580267667</v>
+        <v>-316.7094357287745</v>
       </c>
       <c r="AR27" t="n">
-        <v>36.18304</v>
+        <v>31</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.444648368310663</v>
+        <v>3.835017245534339</v>
       </c>
       <c r="AT27" t="n">
-        <v>-307.3933331589693</v>
+        <v>-263.2828206510765</v>
       </c>
       <c r="AU27" t="n">
         <v>56.86374264883423</v>
